--- a/xlsx/温带海洋性气候_intext.xlsx
+++ b/xlsx/温带海洋性气候_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
   <si>
     <t>温带海洋性气候</t>
   </si>
@@ -29,7 +29,7 @@
     <t>亚洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_温带海洋性气候</t>
+    <t>政策_政策_美国_温带海洋性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>不列顛群島</t>
+    <t>不列颠群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E8%A3%BD%E5%93%81</t>
   </si>
   <si>
-    <t>乳製品</t>
+    <t>乳制品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%A4%90</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>曼徹斯特</t>
+    <t>曼彻斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1</t>
   </si>
   <si>
-    <t>愛丁堡</t>
+    <t>爱丁堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>布魯塞爾</t>
+    <t>布鲁塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%89%B9%E5%8D%AB%E6%99%AE</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%89%99</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
@@ -305,25 +305,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>漢堡</t>
+    <t>汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F</t>
   </si>
   <si>
-    <t>法蘭克福</t>
+    <t>法兰克福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%9F%8E</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD_(%E7%B4%90%E8%A5%BF%E8%98%AD)</t>
   </si>
   <si>
-    <t>奧克蘭 (紐西蘭)</t>
+    <t>奥克兰 (纽西兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E7%88%BE%E5%8C%85</t>
   </si>
   <si>
-    <t>畢爾包</t>
+    <t>毕尔包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E9%A2%A8%E7%B3%BB</t>
   </si>
   <si>
-    <t>行星風系</t>
+    <t>行星风系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -587,19 +587,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -665,9 +665,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
   </si>
   <si>
@@ -677,9 +674,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
   </si>
   <si>
-    <t>西欧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
   </si>
   <si>
@@ -707,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9A</t>
@@ -821,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -911,27 +905,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -941,25 +926,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -977,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -989,19 +968,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1025,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -4575,7 +4551,7 @@
         <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4601,10 +4577,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4630,10 +4606,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4659,10 +4635,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4688,10 +4664,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4717,10 +4693,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4746,10 +4722,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4775,10 +4751,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4804,10 +4780,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4833,10 +4809,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>11</v>
@@ -4862,10 +4838,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4891,10 +4867,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4920,10 +4896,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4949,10 +4925,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4978,10 +4954,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5007,10 +4983,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5036,10 +5012,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5065,10 +5041,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5094,10 +5070,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5123,10 +5099,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5152,10 +5128,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5181,10 +5157,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5210,10 +5186,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5239,10 +5215,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5268,10 +5244,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5297,10 +5273,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5326,10 +5302,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5355,10 +5331,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5384,10 +5360,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>5</v>
@@ -5413,10 +5389,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5471,10 +5447,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5500,10 +5476,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5529,10 +5505,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5558,10 +5534,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5587,10 +5563,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5616,10 +5592,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5645,10 +5621,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5674,10 +5650,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5703,10 +5679,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5732,10 +5708,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5761,10 +5737,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5790,10 +5766,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5819,10 +5795,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5848,10 +5824,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>10</v>
@@ -5877,10 +5853,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5906,10 +5882,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5935,10 +5911,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5993,10 +5969,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6022,10 +5998,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6080,10 +6056,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>146</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6109,10 +6085,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6167,10 +6143,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6254,10 +6230,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6283,10 +6259,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6312,10 +6288,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6370,10 +6346,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6399,10 +6375,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6428,10 +6404,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6457,10 +6433,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6486,10 +6462,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6515,10 +6491,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6544,10 +6520,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6573,10 +6549,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6602,10 +6578,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6631,10 +6607,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
